--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH108-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B4E006-531E-BD48-A5D5-1C58AAFE5077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CAA7AB-7D6E-F741-BDC0-65794979FEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="500" windowWidth="25300" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -243,13 +243,16 @@
   </si>
   <si>
     <t>noClass</t>
+  </si>
+  <si>
+    <t>presy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -354,6 +357,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -405,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -488,6 +497,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,7 +724,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A30" sqref="A30:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1273,8 +1283,10 @@
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B30" s="7" t="s">
         <v>68</v>
       </c>
@@ -1294,7 +1306,10 @@
       </c>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B31" s="11" t="s">
         <v>68</v>
       </c>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH108-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CAA7AB-7D6E-F741-BDC0-65794979FEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111B2090-BBE0-B841-B6E7-5AB79A2A8888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="500" windowWidth="25300" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t xml:space="preserve">Hypothesis Testing </t>
   </si>
   <si>
-    <t>Welcome! Ice breakers, Worries, What is Statistics?</t>
-  </si>
-  <si>
     <t>Data Collection</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>presy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome! What is Statistics? </t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A31"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -763,7 +763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -772,7 +772,7 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -788,10 +788,10 @@
         <v>9.07</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
@@ -805,13 +805,13 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" s="16"/>
     </row>
@@ -824,10 +824,10 @@
         <v>9.14</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="16"/>
@@ -841,16 +841,16 @@
         <v>9.19</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -863,10 +863,10 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="26"/>
@@ -880,16 +880,16 @@
         <v>9.26</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -901,10 +901,10 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
@@ -921,16 +921,16 @@
         <v>13</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -939,17 +939,17 @@
         <v>10.050000000000001</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
@@ -968,7 +968,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
@@ -977,12 +977,12 @@
         <v>10.119999999999999</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -993,13 +993,13 @@
         <v>10.17</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="5"/>
     </row>
@@ -1012,10 +1012,10 @@
         <v>10.19</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
@@ -1030,16 +1030,16 @@
         <v>10.24</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="11"/>
     </row>
@@ -1052,10 +1052,10 @@
         <v>10.26</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="8"/>
@@ -1070,19 +1070,19 @@
         <v>10.31</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
@@ -1091,17 +1091,17 @@
         <v>11.02</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>8</v>
@@ -1110,17 +1110,17 @@
         <v>11.07</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
@@ -1129,7 +1129,7 @@
         <v>11.09</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1144,13 +1144,13 @@
         <v>11.14</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" s="23"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>11.16</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="23"/>
@@ -1180,21 +1180,21 @@
         <v>11.21</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="12" t="s">
@@ -1220,19 +1220,19 @@
         <v>11.28</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
@@ -1241,17 +1241,17 @@
         <v>11.3</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>8</v>
@@ -1260,11 +1260,11 @@
         <v>12.05</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" s="7"/>
       <c r="H28" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1277,7 +1277,7 @@
         <v>12.07</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>8</v>
@@ -1302,16 +1302,16 @@
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>9</v>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH108-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111B2090-BBE0-B841-B6E7-5AB79A2A8888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AC7211-004E-6D45-B36C-19CE4380418C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="500" windowWidth="25300" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Inference: Testing for Goodness of Fit</t>
   </si>
   <si>
-    <t>Final Project Check-in and Work Session</t>
-  </si>
-  <si>
     <t>proj-proposal</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t xml:space="preserve">Welcome! What is Statistics? </t>
+  </si>
+  <si>
+    <t>Summarizing Data cont.</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -498,6 +498,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,7 +727,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -772,7 +775,7 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -791,7 +794,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
@@ -808,10 +811,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="16"/>
     </row>
@@ -827,7 +830,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="16"/>
@@ -841,16 +844,16 @@
         <v>9.19</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -863,10 +866,10 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="26"/>
@@ -879,17 +882,17 @@
       <c r="D8" s="7">
         <v>9.26</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>17</v>
+      <c r="E8" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -901,10 +904,10 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
@@ -917,39 +920,35 @@
       <c r="D10" s="4">
         <v>10.029999999999999</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>13</v>
+      <c r="E10" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
-        <v>67</v>
-      </c>
+      <c r="B11" s="11"/>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="4">
         <v>10.050000000000001</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>33</v>
+      <c r="E11" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="27" t="s">
-        <v>36</v>
-      </c>
+      <c r="G11" s="27"/>
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
@@ -968,7 +967,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
@@ -976,32 +975,37 @@
       <c r="D13" s="7">
         <v>10.119999999999999</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>29</v>
+      <c r="E13" s="35" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="27" t="s">
         <v>36</v>
       </c>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="4">
         <v>10.17</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>19</v>
+      <c r="E14" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="11"/>
@@ -1011,11 +1015,11 @@
       <c r="D15" s="4">
         <v>10.19</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>20</v>
+      <c r="E15" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
@@ -1029,17 +1033,17 @@
       <c r="D16" s="7">
         <v>10.24</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>21</v>
+      <c r="E16" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="11"/>
     </row>
@@ -1052,10 +1056,10 @@
         <v>10.26</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="8"/>
@@ -1069,39 +1073,35 @@
       <c r="D18" s="24">
         <v>10.31</v>
       </c>
-      <c r="E18" s="28" t="s">
-        <v>23</v>
+      <c r="E18" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="11" t="s">
-        <v>67</v>
-      </c>
+      <c r="B19" s="11"/>
       <c r="C19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="4">
         <v>11.02</v>
       </c>
-      <c r="E19" s="35" t="s">
-        <v>27</v>
+      <c r="E19" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>8</v>
@@ -1109,18 +1109,18 @@
       <c r="D20" s="7">
         <v>11.07</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>30</v>
+      <c r="E20" s="37" t="s">
+        <v>27</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
@@ -1129,11 +1129,13 @@
         <v>11.09</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
@@ -1147,10 +1149,10 @@
         <v>24</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" s="23"/>
     </row>
@@ -1166,7 +1168,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="23"/>
@@ -1183,18 +1185,18 @@
         <v>39</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="12" t="s">
@@ -1223,16 +1225,16 @@
         <v>26</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
@@ -1251,7 +1253,7 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>8</v>
@@ -1285,10 +1287,10 @@
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>8</v>
@@ -1308,10 +1310,10 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>9</v>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH108-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AC7211-004E-6D45-B36C-19CE4380418C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABFCABA-0730-4D4D-B78E-060EBD2775D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="500" windowWidth="25300" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -414,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -498,9 +498,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,7 +724,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -846,8 +843,8 @@
       <c r="E6" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="27" t="s">
-        <v>52</v>
+      <c r="F6" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>42</v>
@@ -868,8 +865,8 @@
       <c r="E7" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>53</v>
+      <c r="F7" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="26"/>
@@ -885,8 +882,8 @@
       <c r="E8" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>54</v>
+      <c r="F8" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>43</v>
@@ -907,7 +904,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
@@ -923,8 +920,8 @@
       <c r="E10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>56</v>
+      <c r="F10" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="34" t="s">
@@ -942,7 +939,9 @@
       <c r="E11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="G11" s="27"/>
       <c r="H11" s="34"/>
     </row>
@@ -1109,7 +1108,7 @@
       <c r="D20" s="7">
         <v>11.07</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="7"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH108-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABFCABA-0730-4D4D-B78E-060EBD2775D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD8AC2C-1674-5047-BCBC-9FD48372CF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="500" windowWidth="25300" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -149,15 +149,9 @@
     <t>final-project</t>
   </si>
   <si>
-    <t>final-proj</t>
-  </si>
-  <si>
     <t>Inference: Testing for Goodness of Fit</t>
   </si>
   <si>
-    <t>proj-proposal</t>
-  </si>
-  <si>
     <t>hw-01</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
     <t>hw-03</t>
   </si>
   <si>
-    <t>hw-04</t>
-  </si>
-  <si>
     <t>hw-05</t>
   </si>
   <si>
@@ -246,6 +237,12 @@
   </si>
   <si>
     <t>Summarizing Data cont.</t>
+  </si>
+  <si>
+    <t>final-proj, hw-04</t>
+  </si>
+  <si>
+    <t>proj-proposal, hw-04</t>
   </si>
 </sst>
 </file>
@@ -364,7 +361,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +398,12 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -414,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -498,6 +501,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,7 +744,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G27" sqref="G27:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -772,7 +792,7 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -791,7 +811,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
@@ -808,10 +828,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="16"/>
     </row>
@@ -827,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="16"/>
@@ -841,16 +861,16 @@
         <v>9.19</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -863,10 +883,10 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="26"/>
@@ -880,16 +900,16 @@
         <v>9.26</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -904,7 +924,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
@@ -921,11 +941,11 @@
         <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -940,14 +960,14 @@
         <v>13</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
@@ -966,7 +986,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
@@ -974,18 +994,18 @@
       <c r="D13" s="7">
         <v>10.119999999999999</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="27" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="42" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -993,18 +1013,14 @@
       <c r="D14" s="4">
         <v>10.17</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="39" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="11"/>
@@ -1018,10 +1034,12 @@
         <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
@@ -1032,18 +1050,16 @@
       <c r="D16" s="7">
         <v>10.24</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="37" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>44</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H16" s="8"/>
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1058,13 +1074,13 @@
         <v>21</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="8"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="B18" s="11"/>
       <c r="C18" s="4" t="s">
         <v>8</v>
@@ -1072,15 +1088,15 @@
       <c r="D18" s="24">
         <v>10.31</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="38" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="23" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1100,7 +1116,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>8</v>
@@ -1119,7 +1135,7 @@
     </row>
     <row r="21" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
@@ -1132,9 +1148,7 @@
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
@@ -1148,12 +1162,14 @@
         <v>24</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="11"/>
@@ -1167,7 +1183,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="23"/>
@@ -1181,21 +1197,21 @@
         <v>11.21</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="12" t="s">
@@ -1224,16 +1240,16 @@
         <v>26</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
@@ -1252,7 +1268,7 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>8</v>
@@ -1264,9 +1280,7 @@
         <v>31</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="H28" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
@@ -1282,14 +1296,16 @@
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
+      <c r="H29" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>8</v>
@@ -1309,10 +1325,10 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>9</v>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH108-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD8AC2C-1674-5047-BCBC-9FD48372CF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C829E0B3-4EBA-474B-A0E1-42C00B2B456C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="500" windowWidth="25300" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>Confidence Intervals for Point Estimates</t>
   </si>
   <si>
-    <t>Inference: One Sample Means</t>
-  </si>
-  <si>
     <t>Inference: Paired Data</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>proj-proposal, hw-04</t>
+  </si>
+  <si>
+    <t>Inference: Small One Sample Means</t>
   </si>
 </sst>
 </file>
@@ -361,7 +361,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,12 +398,6 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -417,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -501,23 +495,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,7 +721,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:H29"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -792,7 +769,7 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -811,7 +788,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
@@ -828,10 +805,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="16"/>
     </row>
@@ -847,7 +824,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="16"/>
@@ -861,16 +838,16 @@
         <v>9.19</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>44</v>
+        <v>66</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -883,10 +860,10 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="26"/>
@@ -899,17 +876,17 @@
       <c r="D8" s="7">
         <v>9.26</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>50</v>
+      <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -924,7 +901,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
@@ -937,15 +914,15 @@
       <c r="D10" s="4">
         <v>10.029999999999999</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
+      <c r="F10" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -960,14 +937,14 @@
         <v>13</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
@@ -986,7 +963,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
@@ -994,18 +971,18 @@
       <c r="D13" s="7">
         <v>10.119999999999999</v>
       </c>
-      <c r="E13" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42" t="s">
-        <v>36</v>
+      <c r="E13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1013,14 +990,12 @@
       <c r="D14" s="4">
         <v>10.17</v>
       </c>
-      <c r="E14" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="E14" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="43"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="11"/>
@@ -1031,14 +1006,14 @@
         <v>10.19</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1050,14 +1025,14 @@
       <c r="D16" s="7">
         <v>10.24</v>
       </c>
-      <c r="E16" s="37" t="s">
-        <v>20</v>
+      <c r="E16" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="11"/>
@@ -1071,10 +1046,10 @@
         <v>10.26</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="8"/>
@@ -1088,15 +1063,15 @@
       <c r="D18" s="24">
         <v>10.31</v>
       </c>
-      <c r="E18" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>59</v>
+      <c r="E18" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1108,15 +1083,17 @@
         <v>11.02</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>58</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>8</v>
@@ -1125,17 +1102,17 @@
         <v>11.07</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
@@ -1144,7 +1121,7 @@
         <v>11.09</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1159,16 +1136,16 @@
         <v>11.14</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1180,10 +1157,10 @@
         <v>11.16</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="23"/>
@@ -1197,21 +1174,21 @@
         <v>11.21</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="12" t="s">
@@ -1237,19 +1214,19 @@
         <v>11.28</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
@@ -1258,17 +1235,17 @@
         <v>11.3</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>8</v>
@@ -1277,7 +1254,7 @@
         <v>12.05</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" s="7"/>
       <c r="H28" s="16"/>
@@ -1292,20 +1269,20 @@
         <v>12.07</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>8</v>
@@ -1319,16 +1296,16 @@
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>9</v>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH108-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C829E0B3-4EBA-474B-A0E1-42C00B2B456C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645C6365-A813-FA45-B30B-03D07E5F5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="500" windowWidth="25300" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Inference: Small One Sample Means</t>
+  </si>
+  <si>
+    <t>hw-07</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1069,7 +1072,9 @@
       <c r="F18" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="24"/>
+      <c r="G18" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="H18" s="23" t="s">
         <v>68</v>
       </c>
@@ -1108,7 +1113,9 @@
       <c r="G20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
@@ -1142,7 +1149,7 @@
         <v>53</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H22" s="23" t="s">
         <v>34</v>
@@ -1180,10 +1187,10 @@
         <v>60</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1221,7 +1228,7 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH108-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645C6365-A813-FA45-B30B-03D07E5F5A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BBC594-2C66-7445-B681-270B71267FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="500" windowWidth="25300" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>Inference: Small One Sample Means</t>
-  </si>
-  <si>
-    <t>hw-07</t>
   </si>
 </sst>
 </file>
@@ -723,7 +720,7 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -1148,9 +1145,7 @@
       <c r="F22" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="27" t="s">
-        <v>42</v>
-      </c>
+      <c r="G22" s="27"/>
       <c r="H22" s="23" t="s">
         <v>34</v>
       </c>
@@ -1187,11 +1182,9 @@
         <v>60</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="8" t="s">
         <v>42</v>
       </c>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
@@ -1228,7 +1221,7 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH108-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BBC594-2C66-7445-B681-270B71267FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102F72E5-2DAE-6947-85E0-528A5C2289BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="500" windowWidth="25300" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -146,9 +146,6 @@
     <t>final-project</t>
   </si>
   <si>
-    <t>Inference: Testing for Goodness of Fit</t>
-  </si>
-  <si>
     <t>hw-01</t>
   </si>
   <si>
@@ -215,12 +212,6 @@
     <t>Ch 6.2</t>
   </si>
   <si>
-    <t>Ch 6.3</t>
-  </si>
-  <si>
-    <t>Ch 6.4</t>
-  </si>
-  <si>
     <t>proj</t>
   </si>
   <si>
@@ -243,6 +234,12 @@
   </si>
   <si>
     <t>Inference: Small One Sample Means</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Ch 6.3, 6.4</t>
   </si>
 </sst>
 </file>
@@ -720,8 +717,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -769,7 +766,7 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -788,7 +785,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
@@ -805,10 +802,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="16"/>
     </row>
@@ -824,7 +821,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="16"/>
@@ -838,16 +835,16 @@
         <v>9.19</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -860,10 +857,10 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="26"/>
@@ -877,16 +874,16 @@
         <v>9.26</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -901,7 +898,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
@@ -918,11 +915,11 @@
         <v>18</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -937,14 +934,14 @@
         <v>13</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
@@ -963,7 +960,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
@@ -982,7 +979,7 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1006,10 +1003,10 @@
         <v>10.19</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5" t="s">
@@ -1029,10 +1026,10 @@
         <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="11"/>
@@ -1049,7 +1046,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="8"/>
@@ -1067,13 +1064,13 @@
         <v>21</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1088,14 +1085,14 @@
         <v>22</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>8</v>
@@ -1111,12 +1108,12 @@
         <v>34</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
@@ -1143,7 +1140,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="23" t="s">
@@ -1162,7 +1159,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="23"/>
@@ -1176,19 +1173,17 @@
         <v>11.21</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>60</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="12" t="s">
@@ -1217,16 +1212,16 @@
         <v>25</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
@@ -1245,7 +1240,7 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>8</v>
@@ -1279,10 +1274,10 @@
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>8</v>
@@ -1302,10 +1297,10 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>9</v>
